--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
@@ -800,25 +813,31 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -827,19 +846,25 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,13 +963,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -956,20 +995,26 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,11 +1036,11 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2000</v>
+        <v>-3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
         <v>-2000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,23 +1176,25 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
@@ -1135,51 +1202,57 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1187,35 +1260,41 @@
       <c r="N21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
@@ -1223,15 +1302,21 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E23" s="3">
         <v>-2800</v>
@@ -1240,22 +1325,22 @@
         <v>-2000</v>
       </c>
       <c r="G23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1263,8 +1348,14 @@
       <c r="N23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,13 +1436,19 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
         <v>-2800</v>
@@ -1354,22 +1457,22 @@
         <v>-2000</v>
       </c>
       <c r="G26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1377,13 +1480,19 @@
       <c r="N26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E27" s="3">
         <v>-2800</v>
@@ -1392,22 +1501,22 @@
         <v>-2000</v>
       </c>
       <c r="G27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1415,8 +1524,14 @@
       <c r="N27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,22 +1700,28 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1591,27 +1730,33 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E33" s="3">
         <v>-2800</v>
@@ -1620,22 +1765,22 @@
         <v>-2000</v>
       </c>
       <c r="G33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -1643,8 +1788,14 @@
       <c r="N33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,13 +1832,19 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E35" s="3">
         <v>-2800</v>
@@ -1696,22 +1853,22 @@
         <v>-2000</v>
       </c>
       <c r="G35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -1719,51 +1876,63 @@
       <c r="N35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +2049,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,34 +2093,40 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>400</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,37 +2196,43 @@
         <v>1700</v>
       </c>
       <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,72 +2269,84 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4300</v>
       </c>
       <c r="K48" s="3">
         <v>4300</v>
       </c>
       <c r="L48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="M48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="N48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>800</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4600</v>
       </c>
       <c r="M54" s="3">
         <v>4400</v>
       </c>
       <c r="N54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,198 +2617,230 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F60" s="3">
         <v>8100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2559,11 +2850,11 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7300</v>
       </c>
       <c r="L66" s="3">
         <v>7300</v>
       </c>
       <c r="M66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,56 +3511,68 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E81" s="3">
         <v>-2800</v>
@@ -3192,22 +3581,22 @@
         <v>-2000</v>
       </c>
       <c r="G81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -3215,8 +3604,14 @@
       <c r="N81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,35 +3626,37 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,19 +3952,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -3536,23 +3977,29 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
@@ -819,31 +833,37 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -852,19 +872,25 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,19 +1003,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>2000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,20 +1041,26 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,11 +1088,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="E18" s="3">
         <v>-2100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2000</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1800</v>
+        <v>-2100</v>
       </c>
       <c r="H18" s="3">
         <v>-2000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,29 +1244,31 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
@@ -1208,57 +1276,63 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1266,41 +1340,47 @@
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
@@ -1308,21 +1388,27 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2000</v>
       </c>
       <c r="G23" s="3">
         <v>-2800</v>
@@ -1331,22 +1417,22 @@
         <v>-2000</v>
       </c>
       <c r="I23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1354,8 +1440,14 @@
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1540,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2000</v>
       </c>
       <c r="G26" s="3">
         <v>-2800</v>
@@ -1463,22 +1567,22 @@
         <v>-2000</v>
       </c>
       <c r="I26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -1486,19 +1590,25 @@
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2000</v>
       </c>
       <c r="G27" s="3">
         <v>-2800</v>
@@ -1507,22 +1617,22 @@
         <v>-2000</v>
       </c>
       <c r="I27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,28 +1840,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1736,33 +1876,39 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2000</v>
       </c>
       <c r="G33" s="3">
         <v>-2800</v>
@@ -1771,22 +1917,22 @@
         <v>-2000</v>
       </c>
       <c r="I33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1990,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2000</v>
       </c>
       <c r="G35" s="3">
         <v>-2800</v>
@@ -1859,22 +2017,22 @@
         <v>-2000</v>
       </c>
       <c r="I35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,41 +2235,47 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,40 +2285,46 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>400</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,52 +2385,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="E46" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F46" s="3">
         <v>1700</v>
       </c>
       <c r="G46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,84 +2485,96 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4300</v>
       </c>
       <c r="M48" s="3">
         <v>4300</v>
       </c>
       <c r="N48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="O48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="P48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>800</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,38 +2705,44 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4600</v>
       </c>
       <c r="O54" s="3">
         <v>4400</v>
       </c>
       <c r="P54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,236 +2879,268 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
         <v>4000</v>
       </c>
       <c r="F58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2856,11 +3148,11 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7300</v>
       </c>
       <c r="N66" s="3">
         <v>7300</v>
       </c>
       <c r="O66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3895,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2000</v>
       </c>
       <c r="G81" s="3">
         <v>-2800</v>
@@ -3587,22 +3977,22 @@
         <v>-2000</v>
       </c>
       <c r="I81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,41 +4024,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4394,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,11 +4410,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -3983,23 +4425,29 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,40 +4558,46 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4825,49 @@
         <v>2800</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -789,43 +792,46 @@
       <c r="R8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -839,34 +845,37 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-400</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -878,10 +887,10 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -889,8 +898,11 @@
       <c r="R10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>2000</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>2000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1047,11 +1066,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1116,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,31 +1278,32 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1282,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1291,98 +1324,104 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
       </c>
       <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1394,48 +1433,51 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,46 +1594,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -1596,46 +1647,49 @@
       <c r="R26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,31 +1912,34 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1882,7 +1951,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1891,51 +1960,54 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,46 +2071,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2153,22 +2239,22 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2177,22 +2263,25 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2291,34 +2383,37 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -2326,8 +2421,8 @@
       <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>400</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,58 +2489,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
       <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,28 +2610,28 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4300</v>
       </c>
       <c r="N48" s="3">
         <v>4300</v>
@@ -2533,7 +2640,7 @@
         <v>4300</v>
       </c>
       <c r="P48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Q48" s="3">
         <v>4400</v>
@@ -2541,28 +2648,31 @@
       <c r="R48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>800</v>
@@ -2571,14 +2681,14 @@
         <v>800</v>
       </c>
       <c r="L49" s="3">
+        <v>800</v>
+      </c>
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,25 +2807,28 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2718,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>1500</v>
@@ -2727,7 +2846,7 @@
         <v>1500</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2736,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4400</v>
       </c>
       <c r="O54" s="3">
         <v>4400</v>
       </c>
       <c r="P54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,49 +3010,50 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -2931,232 +3061,247 @@
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1700</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1400</v>
       </c>
       <c r="R58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1900</v>
       </c>
       <c r="I59" s="3">
         <v>1900</v>
       </c>
       <c r="J59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3200</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
       </c>
       <c r="L60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2600</v>
       </c>
       <c r="P60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>4700</v>
       </c>
       <c r="O61" s="3">
         <v>4700</v>
       </c>
       <c r="P61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>4600</v>
       </c>
       <c r="R61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,43 +3485,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>7300</v>
       </c>
       <c r="O66" s="3">
         <v>7300</v>
@@ -3376,13 +3533,16 @@
         <v>7300</v>
       </c>
       <c r="Q66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,101 +4089,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,13 +4236,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4053,16 +4251,16 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,44 +4539,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4371,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4416,8 +4636,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4431,23 +4651,26 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4564,11 +4793,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4578,26 +4807,29 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4925,45 +5176,48 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,43 +755,43 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -795,46 +799,49 @@
       <c r="S8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -848,37 +855,40 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -890,10 +900,10 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,14 +1059,14 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>2000</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>2000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1069,11 +1089,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,8 +1142,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,34 +1312,35 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1318,7 +1352,7 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1327,104 +1361,110 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1436,51 +1476,54 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,49 +1646,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
@@ -1650,49 +1702,52 @@
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,34 +1982,37 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -1954,7 +2024,7 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1963,54 +2033,57 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,49 +2150,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -2242,22 +2329,22 @@
         <v>400</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2266,22 +2353,25 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
+        <v>800</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,37 +2479,40 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -2424,8 +2520,8 @@
       <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="O44" s="3">
+        <v>400</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2613,28 +2721,28 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4300</v>
       </c>
       <c r="O48" s="3">
         <v>4300</v>
@@ -2643,7 +2751,7 @@
         <v>4300</v>
       </c>
       <c r="Q48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="R48" s="3">
         <v>4400</v>
@@ -2651,31 +2759,34 @@
       <c r="S48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2684,14 +2795,14 @@
         <v>800</v>
       </c>
       <c r="M49" s="3">
+        <v>800</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>1500</v>
@@ -2849,7 +2969,7 @@
         <v>1500</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2858,13 +2978,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4400</v>
       </c>
       <c r="P54" s="3">
         <v>4400</v>
       </c>
       <c r="Q54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,52 +3141,53 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3064,247 +3195,262 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1700</v>
       </c>
       <c r="O58" s="3">
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1400</v>
       </c>
       <c r="S58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1900</v>
       </c>
       <c r="J59" s="3">
         <v>1900</v>
       </c>
       <c r="K59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3200</v>
       </c>
       <c r="L60" s="3">
         <v>3200</v>
       </c>
       <c r="M60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2600</v>
       </c>
       <c r="P60" s="3">
         <v>2600</v>
       </c>
       <c r="Q60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>4700</v>
       </c>
       <c r="P61" s="3">
         <v>4700</v>
       </c>
       <c r="Q61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R61" s="3">
         <v>4800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>4600</v>
       </c>
       <c r="S61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,46 +3643,49 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>7300</v>
       </c>
       <c r="P66" s="3">
         <v>7300</v>
@@ -3536,13 +3694,16 @@
         <v>7300</v>
       </c>
       <c r="R66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,107 +4281,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,13 +4438,13 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4254,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,47 +4756,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4654,23 +4875,26 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4796,11 +5026,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>3000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4810,26 +5040,29 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,203 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -858,43 +872,49 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -903,19 +923,25 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,32 +1082,38 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1092,43 +1132,49 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1145,11 +1191,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3500</v>
       </c>
       <c r="I18" s="3">
         <v>-2100</v>
       </c>
       <c r="J18" s="3">
-        <v>-2000</v>
+        <v>-3500</v>
       </c>
       <c r="K18" s="3">
-        <v>-1800</v>
+        <v>-2100</v>
       </c>
       <c r="L18" s="3">
         <v>-2000</v>
       </c>
       <c r="M18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,40 +1379,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>2300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1355,69 +1423,75 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1425,52 +1499,58 @@
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1479,33 +1559,39 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2000</v>
       </c>
       <c r="K23" s="3">
         <v>-2800</v>
@@ -1514,22 +1600,22 @@
         <v>-2000</v>
       </c>
       <c r="M23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,31 +1747,37 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2000</v>
       </c>
       <c r="K26" s="3">
         <v>-2800</v>
@@ -1682,22 +1786,22 @@
         <v>-2000</v>
       </c>
       <c r="M26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
@@ -1705,31 +1809,37 @@
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2000</v>
       </c>
       <c r="K27" s="3">
         <v>-2800</v>
@@ -1738,22 +1848,22 @@
         <v>-2000</v>
       </c>
       <c r="M27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,40 +2119,46 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>-2300</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2027,45 +2167,51 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2000</v>
       </c>
       <c r="K33" s="3">
         <v>-2800</v>
@@ -2074,22 +2220,22 @@
         <v>-2000</v>
       </c>
       <c r="M33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,31 +2305,37 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2000</v>
       </c>
       <c r="K35" s="3">
         <v>-2800</v>
@@ -2186,22 +2344,22 @@
         <v>-2000</v>
       </c>
       <c r="M35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,53 +2606,59 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>800</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,52 +2668,58 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
+      <c r="P44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>400</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,64 +2792,76 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1700</v>
       </c>
       <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2916,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4300</v>
       </c>
       <c r="Q48" s="3">
         <v>4300</v>
       </c>
       <c r="R48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="S48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="T48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2993,7 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
@@ -2780,34 +3002,34 @@
         <v>2300</v>
       </c>
       <c r="H49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
       <c r="N49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>800</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2963,31 +3203,37 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>1500</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>4600</v>
       </c>
       <c r="S54" s="3">
         <v>4400</v>
       </c>
       <c r="T54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3402,258 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4200</v>
       </c>
       <c r="I58" s="3">
         <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F60" s="3">
         <v>12000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,75 +3661,81 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3451,11 +3743,11 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>7300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>7300</v>
       </c>
       <c r="R66" s="3">
         <v>7300</v>
       </c>
       <c r="S66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4538,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6100</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-7700</v>
+        <v>-1400</v>
       </c>
       <c r="F76" s="3">
         <v>-6100</v>
@@ -4190,46 +4562,52 @@
         <v>-7700</v>
       </c>
       <c r="H76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-5900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,92 +4662,104 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2000</v>
       </c>
       <c r="K81" s="3">
         <v>-2800</v>
@@ -4378,22 +4768,22 @@
         <v>-2000</v>
       </c>
       <c r="M81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4830,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4441,34 +4839,34 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5277,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4863,11 +5305,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4878,23 +5320,29 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5459,26 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5029,40 +5489,46 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>3000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>2800</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,153 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
@@ -816,55 +819,58 @@
       <c r="V8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -878,46 +884,49 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -929,10 +938,10 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -940,8 +949,11 @@
       <c r="V10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1108,14 +1127,14 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>2000</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>2000</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1138,11 +1157,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,8 +1198,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1197,8 +1219,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,43 +1413,44 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1429,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1438,122 +1471,128 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>800</v>
       </c>
       <c r="M22" s="3">
         <v>800</v>
       </c>
       <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1565,60 +1604,63 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
@@ -1629,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,58 +1801,61 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
@@ -1815,58 +1866,61 @@
       <c r="V26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
@@ -1877,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,43 +2191,46 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2173,7 +2242,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2182,63 +2251,66 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
@@ -2249,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,58 +2386,61 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
@@ -2373,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,13 +2583,13 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -2512,22 +2598,22 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2536,22 +2622,25 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,56 +2701,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
       </c>
       <c r="L43" s="3">
         <v>800</v>
       </c>
       <c r="M43" s="3">
+        <v>800</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2674,46 +2766,49 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
       </c>
       <c r="M44" s="3">
+        <v>400</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -2721,8 +2816,8 @@
       <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
+      <c r="R44" s="3">
+        <v>400</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,70 +2896,76 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4700</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
         <v>4700</v>
       </c>
       <c r="F46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>600</v>
       </c>
       <c r="P46" s="3">
         <v>600</v>
       </c>
       <c r="Q46" s="3">
+        <v>600</v>
+      </c>
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,22 +3026,25 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -2946,28 +3053,28 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4300</v>
       </c>
       <c r="R48" s="3">
         <v>4300</v>
@@ -2976,7 +3083,7 @@
         <v>4300</v>
       </c>
       <c r="T48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="U48" s="3">
         <v>4400</v>
@@ -2984,40 +3091,43 @@
       <c r="V48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
@@ -3026,14 +3136,14 @@
         <v>800</v>
       </c>
       <c r="P49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3209,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>1500</v>
@@ -3218,7 +3337,7 @@
         <v>1500</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3227,13 +3346,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>4400</v>
       </c>
       <c r="S54" s="3">
         <v>4400</v>
       </c>
       <c r="T54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U54" s="3">
         <v>4600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,61 +3533,62 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1700</v>
       </c>
       <c r="L57" s="3">
         <v>1700</v>
       </c>
       <c r="M57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3466,292 +3596,307 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
-        <v>5000</v>
-      </c>
       <c r="F58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1700</v>
       </c>
       <c r="R58" s="3">
         <v>1700</v>
       </c>
       <c r="S58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1400</v>
       </c>
       <c r="V58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
-        <v>2500</v>
-      </c>
       <c r="F59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1900</v>
       </c>
       <c r="M59" s="3">
         <v>1900</v>
       </c>
       <c r="N59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3200</v>
       </c>
       <c r="O60" s="3">
         <v>3200</v>
       </c>
       <c r="P60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2600</v>
       </c>
       <c r="S60" s="3">
         <v>2600</v>
       </c>
       <c r="T60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>4700</v>
       </c>
       <c r="S61" s="3">
         <v>4700</v>
       </c>
       <c r="T61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U61" s="3">
         <v>4800</v>
-      </c>
-      <c r="U61" s="3">
-        <v>4600</v>
       </c>
       <c r="V61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,55 +4116,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>7300</v>
       </c>
       <c r="S66" s="3">
         <v>7300</v>
@@ -4019,13 +4176,16 @@
         <v>7300</v>
       </c>
       <c r="U66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,125 +4856,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
@@ -4797,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,10 +5028,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4845,13 +5043,13 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4860,16 +5058,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,56 +5406,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5250,13 +5466,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,28 +5498,29 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5311,8 +5531,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5326,23 +5546,26 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,23 +5691,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5495,11 +5724,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5509,26 +5738,29 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,160 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>800</v>
       </c>
       <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
@@ -822,58 +826,61 @@
       <c r="W8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -887,49 +894,52 @@
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -941,10 +951,10 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1130,14 +1150,14 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>2000</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>2000</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1160,11 +1180,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1224,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1222,8 +1245,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>100</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
       </c>
       <c r="V17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,46 +1447,47 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1465,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1474,128 +1508,134 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
       <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1607,63 +1647,66 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,61 +1853,64 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
@@ -1869,61 +1921,64 @@
       <c r="W26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,46 +2261,49 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2245,7 +2315,7 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2254,66 +2324,69 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,61 +2465,64 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,25 +2660,26 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
@@ -2601,22 +2688,22 @@
         <v>400</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2625,22 +2712,25 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,59 +2794,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>900</v>
       </c>
       <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>800</v>
       </c>
       <c r="N43" s="3">
+        <v>800</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2769,49 +2862,52 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -2819,8 +2915,8 @@
       <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
+      <c r="S44" s="3">
+        <v>400</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4700</v>
       </c>
       <c r="F46" s="3">
         <v>4700</v>
       </c>
       <c r="G46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>600</v>
       </c>
       <c r="R46" s="3">
+        <v>600</v>
+      </c>
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,25 +3134,28 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -3056,28 +3164,28 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4300</v>
       </c>
       <c r="S48" s="3">
         <v>4300</v>
@@ -3086,7 +3194,7 @@
         <v>4300</v>
       </c>
       <c r="U48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="V48" s="3">
         <v>4400</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3103,34 +3214,34 @@
         <v>2300</v>
       </c>
       <c r="E49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
@@ -3139,14 +3250,14 @@
         <v>800</v>
       </c>
       <c r="Q49" s="3">
+        <v>800</v>
+      </c>
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3331,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>1500</v>
@@ -3340,7 +3460,7 @@
         <v>1500</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3349,13 +3469,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,64 +3554,67 @@
         <v>4900</v>
       </c>
       <c r="E54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>4400</v>
       </c>
       <c r="T54" s="3">
         <v>4400</v>
       </c>
       <c r="U54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V54" s="3">
         <v>4600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,55 +3674,55 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1700</v>
       </c>
       <c r="M57" s="3">
         <v>1700</v>
       </c>
       <c r="N57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3599,268 +3730,283 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4900</v>
       </c>
       <c r="F58" s="3">
         <v>4900</v>
       </c>
       <c r="G58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1700</v>
       </c>
       <c r="S58" s="3">
         <v>1700</v>
       </c>
       <c r="T58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1400</v>
       </c>
       <c r="W58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1900</v>
       </c>
       <c r="N59" s="3">
         <v>1900</v>
       </c>
       <c r="O59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3200</v>
       </c>
       <c r="P60" s="3">
         <v>3200</v>
       </c>
       <c r="Q60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2600</v>
       </c>
       <c r="T60" s="3">
         <v>2600</v>
       </c>
       <c r="U60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>4700</v>
       </c>
       <c r="T61" s="3">
         <v>4700</v>
       </c>
       <c r="U61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V61" s="3">
         <v>4800</v>
-      </c>
-      <c r="V61" s="3">
-        <v>4600</v>
       </c>
       <c r="W61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,36 +4016,36 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,58 +4274,61 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>7300</v>
       </c>
       <c r="T66" s="3">
         <v>7300</v>
@@ -4179,13 +4337,16 @@
         <v>7300</v>
       </c>
       <c r="V66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,131 +5048,137 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,13 +5227,13 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5046,13 +5245,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5061,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,59 +5623,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5469,13 +5686,16 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5719,32 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5549,23 +5770,26 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,26 +5921,29 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5727,11 +5957,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>3000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5741,26 +5971,29 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>700</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
-        <v>700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="Q100" s="3">
+        <v>800</v>
+      </c>
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>300</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>900</v>
-      </c>
-      <c r="P100" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>2300</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>300</v>
-      </c>
-      <c r="V100" s="3">
-        <v>200</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,13 +6423,16 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -6189,54 +6441,57 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
       </c>
       <c r="J8" s="3">
+        <v>800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
@@ -829,61 +833,64 @@
       <c r="X8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>500</v>
       </c>
       <c r="N9" s="3">
         <v>500</v>
       </c>
       <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -897,52 +904,55 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
       </c>
       <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -954,10 +964,10 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1144,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1153,14 +1173,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>2000</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>2000</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1183,11 +1203,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,8 +1250,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1248,8 +1271,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>100</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,40 +1491,40 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1502,7 +1536,7 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1511,134 +1545,140 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>800</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
       </c>
       <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1650,66 +1690,69 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,64 +1905,67 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
@@ -1924,64 +1976,67 @@
       <c r="X26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,40 +2343,40 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2318,7 +2388,7 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2327,69 +2397,72 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,64 +2544,67 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,28 +2747,29 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
@@ -2691,22 +2778,22 @@
         <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
@@ -2715,22 +2802,25 @@
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,62 +2887,65 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>900</v>
       </c>
       <c r="G43" s="3">
         <v>900</v>
       </c>
       <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>800</v>
       </c>
       <c r="N43" s="3">
         <v>800</v>
       </c>
       <c r="O43" s="3">
+        <v>800</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,52 +2958,55 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
       </c>
       <c r="O44" s="3">
+        <v>400</v>
+      </c>
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
@@ -2918,8 +3014,8 @@
       <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
+      <c r="T44" s="3">
+        <v>400</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,76 +3100,82 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4700</v>
       </c>
       <c r="G46" s="3">
         <v>4700</v>
       </c>
       <c r="H46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,19 +3254,19 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3167,28 +3275,28 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>4100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4300</v>
       </c>
       <c r="T48" s="3">
         <v>4300</v>
@@ -3197,7 +3305,7 @@
         <v>4300</v>
       </c>
       <c r="V48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="W48" s="3">
         <v>4400</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3217,34 +3328,34 @@
         <v>2300</v>
       </c>
       <c r="F49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>800</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
@@ -3253,14 +3364,14 @@
         <v>800</v>
       </c>
       <c r="R49" s="3">
+        <v>800</v>
+      </c>
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3454,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>1500</v>
@@ -3463,7 +3583,7 @@
         <v>1500</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3472,13 +3592,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="E54" s="3">
         <v>4900</v>
       </c>
       <c r="F54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4400</v>
       </c>
       <c r="U54" s="3">
         <v>4400</v>
       </c>
       <c r="V54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W54" s="3">
         <v>4600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,67 +3795,68 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1700</v>
       </c>
       <c r="N57" s="3">
         <v>1700</v>
       </c>
       <c r="O57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3733,285 +3864,300 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4900</v>
       </c>
       <c r="G58" s="3">
         <v>4900</v>
       </c>
       <c r="H58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1700</v>
       </c>
       <c r="T58" s="3">
         <v>1700</v>
       </c>
       <c r="U58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1500</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1400</v>
       </c>
       <c r="X58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1900</v>
       </c>
       <c r="O59" s="3">
         <v>1900</v>
       </c>
       <c r="P59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
       </c>
       <c r="W59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3200</v>
       </c>
       <c r="Q60" s="3">
         <v>3200</v>
       </c>
       <c r="R60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2600</v>
       </c>
       <c r="U60" s="3">
         <v>2600</v>
       </c>
       <c r="V60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>4600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
-      </c>
-      <c r="T61" s="3">
-        <v>4700</v>
       </c>
       <c r="U61" s="3">
         <v>4700</v>
       </c>
       <c r="V61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W61" s="3">
         <v>4800</v>
-      </c>
-      <c r="W61" s="3">
-        <v>4600</v>
       </c>
       <c r="X61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4019,36 +4165,36 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,61 +4432,64 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>7300</v>
       </c>
       <c r="U66" s="3">
         <v>7300</v>
@@ -4340,13 +4498,16 @@
         <v>7300</v>
       </c>
       <c r="W66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="X66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,137 +5240,143 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,25 +5416,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5248,13 +5447,13 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5263,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,62 +5840,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5689,13 +5906,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,34 +5940,35 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5758,8 +5979,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5773,23 +5994,26 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,29 +6151,32 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5960,11 +6190,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>3000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5974,26 +6204,29 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,16 +6675,19 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
@@ -6444,54 +6696,57 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,251 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>200</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
       <c r="X8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1900</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -907,58 +920,64 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
@@ -967,19 +986,25 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,22 +1180,28 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1170,24 +1209,24 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1206,20 +1245,26 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,11 +1298,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1274,11 +1319,11 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3500</v>
       </c>
       <c r="N18" s="3">
         <v>-2100</v>
       </c>
       <c r="O18" s="3">
-        <v>-2000</v>
+        <v>-3500</v>
       </c>
       <c r="P18" s="3">
-        <v>-1800</v>
+        <v>-2100</v>
       </c>
       <c r="Q18" s="3">
         <v>-2000</v>
       </c>
       <c r="R18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,43 +1561,43 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1539,84 +1606,90 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1624,67 +1697,73 @@
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1693,48 +1772,54 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2000</v>
       </c>
       <c r="P23" s="3">
         <v>-2800</v>
@@ -1743,22 +1828,22 @@
         <v>-2000</v>
       </c>
       <c r="R23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
@@ -1766,8 +1851,14 @@
       <c r="Y23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,46 +2005,52 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2000</v>
       </c>
       <c r="P26" s="3">
         <v>-2800</v>
@@ -1956,22 +2059,22 @@
         <v>-2000</v>
       </c>
       <c r="R26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
@@ -1979,46 +2082,52 @@
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2000</v>
       </c>
       <c r="P27" s="3">
         <v>-2800</v>
@@ -2027,22 +2136,22 @@
         <v>-2000</v>
       </c>
       <c r="R27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
@@ -2050,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,43 +2485,43 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2391,60 +2530,66 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2000</v>
       </c>
       <c r="P33" s="3">
         <v>-2800</v>
@@ -2453,22 +2598,22 @@
         <v>-2000</v>
       </c>
       <c r="R33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
@@ -2476,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,46 +2698,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2000</v>
       </c>
       <c r="P35" s="3">
         <v>-2800</v>
@@ -2595,22 +2752,22 @@
         <v>-2000</v>
       </c>
       <c r="R35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
@@ -2618,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,68 +3069,74 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>800</v>
       </c>
       <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>800</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2961,67 +3146,73 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
+      <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
+        <v>400</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
@@ -3032,8 +3223,14 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1500</v>
       </c>
       <c r="O46" s="3">
         <v>1700</v>
       </c>
       <c r="P46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,90 +3472,96 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>4100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4300</v>
       </c>
       <c r="V48" s="3">
         <v>4300</v>
       </c>
       <c r="W48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="X48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Y48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2200</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>2200</v>
@@ -3349,34 +3570,34 @@
         <v>2300</v>
       </c>
       <c r="M49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>800</v>
       </c>
       <c r="R49" s="3">
         <v>800</v>
       </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>900</v>
+      </c>
+      <c r="V49" s="3">
+        <v>800</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3577,31 +3816,37 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>1500</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>4600</v>
       </c>
       <c r="X54" s="3">
         <v>4400</v>
       </c>
       <c r="Y54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,398 +4055,430 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>4200</v>
       </c>
       <c r="N58" s="3">
         <v>4000</v>
       </c>
       <c r="O58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>4600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4195,11 +4486,11 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>7300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>7300</v>
       </c>
       <c r="W66" s="3">
         <v>7300</v>
       </c>
       <c r="X66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Z66" s="3">
         <v>6900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-54200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-51800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-50800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-47900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-47300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-36600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,31 +5466,37 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-7700</v>
       </c>
       <c r="K76" s="3">
         <v>-6100</v>
@@ -5134,46 +5505,52 @@
         <v>-7700</v>
       </c>
       <c r="M76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,122 +5620,134 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2000</v>
       </c>
       <c r="P81" s="3">
         <v>-2800</v>
@@ -5367,22 +5756,22 @@
         <v>-2000</v>
       </c>
       <c r="R81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
@@ -5390,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,7 +5823,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5441,7 +5838,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5450,34 +5847,34 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,40 +6380,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5982,11 +6423,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5997,23 +6438,29 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,35 +6607,41 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6193,40 +6652,46 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>3000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>2800</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>GAXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,187 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
       <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>300</v>
@@ -849,70 +853,73 @@
       <c r="AA8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>500</v>
       </c>
       <c r="Q9" s="3">
         <v>500</v>
       </c>
       <c r="R9" s="3">
+        <v>500</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -926,61 +933,64 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -992,10 +1002,10 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>200</v>
       </c>
       <c r="Z10" s="3">
         <v>200</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1221,14 +1241,14 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>2000</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>2000</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1251,11 +1271,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1327,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1325,8 +1348,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>100</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,40 +1601,40 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1612,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1621,152 +1655,158 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>800</v>
       </c>
       <c r="R22" s="3">
         <v>800</v>
       </c>
       <c r="S22" s="3">
+        <v>800</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1778,75 +1818,78 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,73 +2060,76 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
@@ -2088,73 +2140,76 @@
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-200</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,40 +2561,40 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2536,7 +2606,7 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2545,78 +2615,81 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-200</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,73 +2780,76 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-200</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,37 +3007,38 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
@@ -2960,22 +3047,22 @@
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
@@ -2984,22 +3071,25 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,71 +3165,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>900</v>
       </c>
       <c r="K43" s="3">
+        <v>900</v>
+      </c>
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
       </c>
       <c r="R43" s="3">
+        <v>800</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3152,61 +3245,64 @@
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
       </c>
       <c r="F44" s="3">
         <v>1000</v>
       </c>
       <c r="G44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>400</v>
+      </c>
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>400</v>
       </c>
       <c r="U44" s="3">
         <v>400</v>
@@ -3214,8 +3310,8 @@
       <c r="V44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
+      <c r="W44" s="3">
+        <v>400</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>4700</v>
       </c>
       <c r="J46" s="3">
         <v>4700</v>
       </c>
       <c r="K46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>600</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3478,19 +3586,19 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -3499,28 +3607,28 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>4100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4300</v>
       </c>
       <c r="W48" s="3">
         <v>4300</v>
@@ -3529,7 +3637,7 @@
         <v>4300</v>
       </c>
       <c r="Y48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Z48" s="3">
         <v>4400</v>
@@ -3537,19 +3645,22 @@
       <c r="AA48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2300</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
@@ -3558,34 +3669,34 @@
         <v>2300</v>
       </c>
       <c r="I49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>800</v>
       </c>
       <c r="S49" s="3">
         <v>800</v>
@@ -3594,14 +3705,14 @@
         <v>800</v>
       </c>
       <c r="U49" s="3">
+        <v>800</v>
+      </c>
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3822,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>1500</v>
@@ -3831,7 +3951,7 @@
         <v>1500</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3840,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4600</v>
       </c>
       <c r="F54" s="3">
         <v>4600</v>
       </c>
       <c r="G54" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H54" s="3">
         <v>4900</v>
       </c>
       <c r="I54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>4400</v>
       </c>
       <c r="X54" s="3">
         <v>4400</v>
       </c>
       <c r="Y54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>4600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,76 +4187,77 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1700</v>
       </c>
       <c r="Q57" s="3">
         <v>1700</v>
       </c>
       <c r="R57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4134,316 +4265,331 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4900</v>
       </c>
       <c r="J58" s="3">
         <v>4900</v>
       </c>
       <c r="K58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1700</v>
       </c>
       <c r="W58" s="3">
         <v>1700</v>
       </c>
       <c r="X58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>1400</v>
       </c>
       <c r="AA58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1900</v>
       </c>
       <c r="R59" s="3">
         <v>1900</v>
       </c>
       <c r="S59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>700</v>
       </c>
       <c r="Y59" s="3">
         <v>700</v>
       </c>
       <c r="Z59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3200</v>
       </c>
       <c r="T60" s="3">
         <v>3200</v>
       </c>
       <c r="U60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2600</v>
       </c>
       <c r="X60" s="3">
         <v>2600</v>
       </c>
       <c r="Y60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>4600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1400</v>
-      </c>
-      <c r="W61" s="3">
-        <v>4700</v>
       </c>
       <c r="X61" s="3">
         <v>4700</v>
       </c>
       <c r="Y61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Z61" s="3">
         <v>4800</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>4600</v>
       </c>
       <c r="AA61" s="3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4453,48 +4599,48 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,70 +4905,73 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>7300</v>
       </c>
       <c r="X66" s="3">
         <v>7300</v>
@@ -4822,13 +4980,16 @@
         <v>7300</v>
       </c>
       <c r="Z66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AA66" s="3">
         <v>6900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,155 +5815,161 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-200</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,19 +6028,19 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5853,13 +6052,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5868,16 +6067,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,71 +6490,74 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6348,13 +6565,16 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,43 +6602,44 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6444,23 +6665,26 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,38 +6840,41 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6658,11 +6888,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>3000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6672,26 +6902,29 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,25 +7430,28 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
@@ -7208,54 +7460,57 @@
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>
